--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCBD9D-6F8A-4B8E-9ABC-F1E3912669F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1622EF8E-CEFD-4CC3-8AE6-14F14852C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="page header" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -37,6 +38,21 @@
   </si>
   <si>
     <t>Check Browser</t>
+  </si>
+  <si>
+    <t>views\admin\templates\page_header.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\slider\form.blade.php</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>form</t>
   </si>
 </sst>
 </file>
@@ -261,6 +277,231 @@
         <a:xfrm>
           <a:off x="609600" y="11430000"/>
           <a:ext cx="11706225" cy="5982416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEDD16F-2CDA-4212-BC99-C1D78B5CF471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="381000"/>
+          <a:ext cx="11315700" cy="3054435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322743</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770A84C3-104D-4A53-9793-A79ACA11A9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="8857143" cy="2295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>208381</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A673A7-CDEA-4078-A754-3406BACEC750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="9352381" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>82397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AD76E0-6150-4809-A617-9CED528D9770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="11801475" cy="5987897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>3325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98E5F9D5-D271-4D02-89AF-6DCDFBF142F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17145000"/>
+          <a:ext cx="11439525" cy="5527825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -567,4 +808,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4875CB-E4D1-4076-BF2F-5194721A4BF9}">
+  <dimension ref="A2:B90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1622EF8E-CEFD-4CC3-8AE6-14F14852C2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9242F-F8DB-4187-A99F-18C87529E2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="page header" sheetId="2" r:id="rId2"/>
+    <sheet name="getItem" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>form</t>
+  </si>
+  <si>
+    <t>Models\SliderModel.php</t>
   </si>
 </sst>
 </file>
@@ -502,6 +506,99 @@
         <a:xfrm>
           <a:off x="609600" y="17145000"/>
           <a:ext cx="11439525" cy="5527825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>65524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C8F534-5BF8-4C2F-A007-2F1129D69018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9209524" cy="2542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274971</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>151929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AF6496-ACEB-4C1F-BB91-959144C9F8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="10028571" cy="3771429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4875CB-E4D1-4076-BF2F-5194721A4BF9}">
   <dimension ref="A2:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
@@ -854,4 +951,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2918B14-4E93-417C-A53F-689BDB559137}">
+  <dimension ref="A2:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D9242F-F8DB-4187-A99F-18C87529E2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F94C45-4EAA-4355-A983-120AAAC1AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="page header" sheetId="2" r:id="rId2"/>
     <sheet name="getItem" sheetId="3" r:id="rId3"/>
+    <sheet name="collective" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -57,6 +58,18 @@
   </si>
   <si>
     <t>Models\SliderModel.php</t>
+  </si>
+  <si>
+    <t>composer require 'laravelcollective/html:^5.8.0'</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://laravelcollective.com/docs/5.8/html</t>
+  </si>
+  <si>
+    <t>Installation để tạo html</t>
   </si>
 </sst>
 </file>
@@ -599,6 +612,55 @@
         <a:xfrm>
           <a:off x="609600" y="3238500"/>
           <a:ext cx="10028571" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227352</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F36EFB-9966-4BE8-A95D-B646DF19F0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="9980952" cy="4933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -957,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2918B14-4E93-417C-A53F-689BDB559137}">
   <dimension ref="A2:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -977,4 +1039,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0522645-AC7E-4590-9696-6AF82A90B8E2}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F94C45-4EAA-4355-A983-120AAAC1AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01807796-DD72-4CAD-968C-12341778EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="page header" sheetId="2" r:id="rId2"/>
     <sheet name="getItem" sheetId="3" r:id="rId3"/>
     <sheet name="collective" sheetId="4" r:id="rId4"/>
+    <sheet name="Better Align" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -70,6 +71,15 @@
   </si>
   <si>
     <t>Installation để tạo html</t>
+  </si>
+  <si>
+    <t>Install and setting</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+A</t>
   </si>
 </sst>
 </file>
@@ -661,6 +671,319 @@
         <a:xfrm>
           <a:off x="609600" y="571500"/>
           <a:ext cx="9980952" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>104879</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F762C7EC-06D0-4495-A68E-BAFEA1A9AD2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="11077679" cy="5591175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B26AEAB-F07E-4E3F-BCD0-EFBB3DF813F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="6096000"/>
+          <a:ext cx="10896600" cy="5857035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DFE0717-45E2-4345-BAF8-A8052B06B98F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12192000"/>
+          <a:ext cx="11249025" cy="4438671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>332038</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>94714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E3F48B-5F72-42C8-A149-EA2AAAF14F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16954500"/>
+          <a:ext cx="10695238" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>208228</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>18667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130FC63F-38E5-4DD0-8CD7-CACF5B5C8B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21526500"/>
+          <a:ext cx="10571428" cy="3066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>408152</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>190095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9481A349-BD47-4658-AFF7-13EDD8B751A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25146000"/>
+          <a:ext cx="11380952" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>379581</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>18643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20A6441-2C42-404F-8D7B-E8A11526A876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28765500"/>
+          <a:ext cx="11352381" cy="3257143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1045,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0522645-AC7E-4590-9696-6AF82A90B8E2}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1075,4 +1398,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCCC75E-2206-4A3D-9756-908C2976F3A2}">
+  <dimension ref="A2:B151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01807796-DD72-4CAD-968C-12341778EB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C99F5A9-D1B0-4A39-A822-108E6ACB0B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="getItem" sheetId="3" r:id="rId3"/>
     <sheet name="collective" sheetId="4" r:id="rId4"/>
     <sheet name="Better Align" sheetId="5" r:id="rId5"/>
+    <sheet name="name description" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -80,6 +81,12 @@
   </si>
   <si>
     <t>Ctrl+Shift+A</t>
+  </si>
+  <si>
+    <t>routes\web.php</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\SliderController.php</t>
   </si>
 </sst>
 </file>
@@ -984,6 +991,187 @@
         <a:xfrm>
           <a:off x="609600" y="28765500"/>
           <a:ext cx="11352381" cy="3257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>6030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F24ECD-A523-41C6-92FB-DFB656694C5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11401425" cy="3244530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56152</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F8871-A59B-485E-B6E3-C57C4441E765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="7980952" cy="2323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>227124</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>27809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD97F482-2E59-47B5-B634-5767BC80C13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="11809524" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>180457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9593D839-A8DF-4467-BEB3-193E7D29F119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13144501"/>
+          <a:ext cx="11420475" cy="5323956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCCC75E-2206-4A3D-9756-908C2976F3A2}">
   <dimension ref="A2:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
@@ -1429,4 +1617,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E866C4-6230-4A6A-A54C-6204FFA583AD}">
+  <dimension ref="A2:A69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C99F5A9-D1B0-4A39-A822-108E6ACB0B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71400EED-A0AD-4DA1-A714-52ADD35612AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="collective" sheetId="4" r:id="rId4"/>
     <sheet name="Better Align" sheetId="5" r:id="rId5"/>
     <sheet name="name description" sheetId="6" r:id="rId6"/>
+    <sheet name="FormTemplate" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -87,6 +88,15 @@
   </si>
   <si>
     <t>app\Http\Controllers\SliderController.php</t>
+  </si>
+  <si>
+    <t>config\zvn.php</t>
+  </si>
+  <si>
+    <t>app\Helpers\Form.php</t>
+  </si>
+  <si>
+    <t>Check on browser</t>
   </si>
 </sst>
 </file>
@@ -1172,6 +1182,231 @@
         <a:xfrm>
           <a:off x="609600" y="13144501"/>
           <a:ext cx="11420475" cy="5323956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208457</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E0309A-4E9D-4595-BAC4-0F53F4707559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8742857" cy="3180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2373AF07-1CEE-4901-830E-34FB9FF9D2D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="9400000" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27124</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>94833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63B686E-3D1B-4054-AB07-0042DC3DB510}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8191500"/>
+          <a:ext cx="11609524" cy="3333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65600</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>180214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B90FF0-D1CD-49D9-8934-3829F89638C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12001500"/>
+          <a:ext cx="8600000" cy="6085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>67631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{856DAA82-DAC1-4471-8F10-06C2EE422D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18478501"/>
+          <a:ext cx="11249025" cy="5211130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1623,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E866C4-6230-4A6A-A54C-6204FFA583AD}">
   <dimension ref="A2:A69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
@@ -1653,4 +1888,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C9CB68-96BD-426F-952E-C1A11EBD2878}">
+  <dimension ref="A2:A97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71400EED-A0AD-4DA1-A714-52ADD35612AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E0F37-7B02-4B46-A9DA-690DFC576DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Better Align" sheetId="5" r:id="rId5"/>
     <sheet name="name description" sheetId="6" r:id="rId6"/>
     <sheet name="FormTemplate" sheetId="7" r:id="rId7"/>
+    <sheet name="select button" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -1407,6 +1408,187 @@
         <a:xfrm>
           <a:off x="609600" y="18478501"/>
           <a:ext cx="11249025" cy="5211130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>551009</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B16A2D5-A865-4944-BC99-9D812088C431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11523809" cy="5923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112838</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B50E8EAF-0B31-4CF0-82D2-DA658599249A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="11695238" cy="5666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84571</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23E3EEF8-83BE-4D9C-9A8E-78BA007BC2E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12573000"/>
+          <a:ext cx="9228571" cy="5495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>99517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF004358-EF74-43F8-976F-8927BE96CB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18478501"/>
+          <a:ext cx="11153775" cy="5243016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,7 +2076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C9CB68-96BD-426F-952E-C1A11EBD2878}">
   <dimension ref="A2:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -1924,4 +2106,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CAA8D3-0199-438E-9A99-C2D45514DA07}">
+  <dimension ref="A2:A97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
+++ b/me-docs/15.Xay-dung-chuc-nang-Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73E0F37-7B02-4B46-A9DA-690DFC576DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB84D55E-D765-4CE3-8A81-C9C4B223CB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="name description" sheetId="6" r:id="rId6"/>
     <sheet name="FormTemplate" sheetId="7" r:id="rId7"/>
     <sheet name="select button" sheetId="8" r:id="rId8"/>
+    <sheet name="thumb" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -99,6 +100,12 @@
   <si>
     <t>Check on browser</t>
   </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
 </sst>
 </file>
 
@@ -1589,6 +1596,187 @@
         <a:xfrm>
           <a:off x="609600" y="18478501"/>
           <a:ext cx="11153775" cy="5243016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71264BA3-48ED-4F16-A4E7-CF5E3A2CCE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11420475" cy="2486717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>27352</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>113619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99F696B5-6E6F-46E3-A025-ACFDDA61BBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="9780952" cy="5447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>484419</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519F3793-30B0-46A4-B014-CFC1986198AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9334500"/>
+          <a:ext cx="10847619" cy="6638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>51445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AD1685-A2EA-45C3-853D-383924F5D91F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="16383000"/>
+          <a:ext cx="11106150" cy="5194945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CAA8D3-0199-438E-9A99-C2D45514DA07}">
   <dimension ref="A2:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -2137,4 +2325,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728281A-4B4C-43E2-A9DA-BF81DD586A5C}">
+  <dimension ref="A2:B86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>